--- a/Desarrollo/Rector Simuleitor/Gestión/RS-CP.xlsx
+++ b/Desarrollo/Rector Simuleitor/Gestión/RS-CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Cronograma del proyecto</t>
   </si>
   <si>
-    <t>RS-CP.docx</t>
+    <t>RS-CP.xlsx</t>
   </si>
   <si>
     <t>Historia de Usuario 01</t>
@@ -186,7 +186,7 @@
     <t>Documento de historia de Usuario 01</t>
   </si>
   <si>
-    <t>RS-HU01.docx</t>
+    <t>RS-DHU01.docx</t>
   </si>
   <si>
     <t>Gamarra / programador front</t>
@@ -198,7 +198,7 @@
     <t>Documento de historia de Usuario 02</t>
   </si>
   <si>
-    <t>RS-HU02.docx</t>
+    <t>RS-DHU02.docx</t>
   </si>
   <si>
     <t>Historia de Usuario 03</t>
@@ -207,7 +207,7 @@
     <t>Documento de historia de Usuario 03</t>
   </si>
   <si>
-    <t>RS-HU03.docx</t>
+    <t>RS-DHU03.docx</t>
   </si>
   <si>
     <t>Ridoutt / diseñador UX</t>
@@ -219,7 +219,7 @@
     <t>Documento de historia de Usuario 04</t>
   </si>
   <si>
-    <t>RS-HU04.docx</t>
+    <t>RS-DHU04.docx</t>
   </si>
   <si>
     <t>Serna / programador full-stack</t>
@@ -231,7 +231,7 @@
     <t>Documento de historia de Usuario 05</t>
   </si>
   <si>
-    <t>RS-HU05.docx</t>
+    <t>RS-DHU05.docx</t>
   </si>
   <si>
     <t>Calderon / analista</t>
@@ -243,7 +243,7 @@
     <t>Documento de historia de Usuario 06</t>
   </si>
   <si>
-    <t>RS-HU06.docx</t>
+    <t>RS-DHU06.docx</t>
   </si>
   <si>
     <t>Toro / programador back</t>
@@ -255,25 +255,25 @@
     <t>Documento de lista de epicas</t>
   </si>
   <si>
+    <t>RS-DLE.docx</t>
+  </si>
+  <si>
+    <t>Elaboracion del documento de analisis</t>
+  </si>
+  <si>
+    <t>Documento de analisis</t>
+  </si>
+  <si>
     <t>RS-DA.docx</t>
   </si>
   <si>
-    <t>Elaboracion del documento de analisis</t>
-  </si>
-  <si>
-    <t>Documento de analisis</t>
-  </si>
-  <si>
-    <t>RS-DLE.docx</t>
-  </si>
-  <si>
     <t>Creacion de entorno de gestión en Trello</t>
   </si>
   <si>
     <t>Entorno de gestión</t>
   </si>
   <si>
-    <t>RS-EG.docx</t>
+    <t>Jira</t>
   </si>
   <si>
     <t>Reporte estado actual del proyecto</t>
@@ -330,7 +330,7 @@
     <t>Funcionalidad de historia de usuario 1</t>
   </si>
   <si>
-    <t>RS-HU01</t>
+    <t>//Front, //Back</t>
   </si>
   <si>
     <t>Gamarra / Front, Ridoutt / Programador</t>
@@ -342,9 +342,6 @@
     <t>Funcionalidad de historia de usuario 2</t>
   </si>
   <si>
-    <t>RS-HU02</t>
-  </si>
-  <si>
     <t>Barrantes / Full Stack, Gamarra / Front</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>Funcionalidad de historia de usuario 3</t>
   </si>
   <si>
-    <t>RS-HU03</t>
-  </si>
-  <si>
     <t>Serna/Full Stack, Toro / Backed</t>
   </si>
   <si>
@@ -366,18 +360,12 @@
     <t>Funcionalidad de historia de usuario 4</t>
   </si>
   <si>
-    <t>RS-HU04</t>
-  </si>
-  <si>
     <t>Codificacion de Historia de usuario 5</t>
   </si>
   <si>
     <t>Funcionalidad de historia de usuario 5</t>
   </si>
   <si>
-    <t>RS-HU05</t>
-  </si>
-  <si>
     <t>Ridoutt / Programador, Calderon/Analista</t>
   </si>
   <si>
@@ -387,9 +375,6 @@
     <t>Funcionalidad de historia de usuario 6</t>
   </si>
   <si>
-    <t>RS-HU06</t>
-  </si>
-  <si>
     <t>Toro / Backed, Serna/Full Stack</t>
   </si>
   <si>
@@ -408,10 +393,10 @@
     <t>Desplegar aplicacion</t>
   </si>
   <si>
-    <t>Aplicacion desplegada</t>
-  </si>
-  <si>
-    <t>RS-AD</t>
+    <t>Documento de despliegue</t>
+  </si>
+  <si>
+    <t>RS-DD.docx</t>
   </si>
   <si>
     <t>Hito 3: Desarrollo y Despliegue</t>
@@ -552,19 +537,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border/>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -611,17 +585,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -637,11 +600,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -656,9 +630,6 @@
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -669,10 +640,10 @@
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -681,22 +652,22 @@
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -705,66 +676,63 @@
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="5" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="5" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="5" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1066,805 +1034,807 @@
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="str">
+      <c r="E4" s="9" t="str">
         <f t="shared" ref="E4:E9" si="1">CONCATENATE(D4," ",H4)</f>
         <v>JOSHÚA ANDRÉ BARRANTES</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="str">
+      <c r="E5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>RODRIGO JOAQUIN CALDERON</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>DIEGO VALENTINO GAMARRA</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>JHON FRANCO RIDOUTT</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>45526.0</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ANDREW GABRIEL SERNA</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>45610.0</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>KARLO ANDRES TORO</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="4"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <v>45526.0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <v>45526.0</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="28">
         <v>45533.0</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="28">
         <v>45536.0</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="27">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="28">
         <v>45533.0</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="28">
         <v>45536.0</v>
       </c>
-      <c r="H14" s="29">
-        <v>0.25</v>
+      <c r="H14" s="27">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <v>45536.0</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="28">
         <v>45540.0</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="28">
+        <v>45536.0</v>
+      </c>
+      <c r="G16" s="28">
+        <v>45540.0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="28">
+        <v>45536.0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>45540.0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="28">
+        <v>45536.0</v>
+      </c>
+      <c r="G18" s="28">
+        <v>45540.0</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="28">
+        <v>45536.0</v>
+      </c>
+      <c r="G19" s="28">
+        <v>45540.0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="28">
+        <v>45536.0</v>
+      </c>
+      <c r="G20" s="28">
+        <v>45540.0</v>
+      </c>
+      <c r="H20" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="32">
+        <v>45539.0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>45542.0</v>
+      </c>
+      <c r="H21" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="32">
+        <v>45543.0</v>
+      </c>
+      <c r="G22" s="32">
+        <v>45549.0</v>
+      </c>
+      <c r="H22" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="32">
+        <v>45549.0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>45550.0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="32">
+        <v>45551.0</v>
+      </c>
+      <c r="G24" s="32">
+        <v>45554.0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="34">
+        <v>45555.0</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="28">
+        <v>45556.0</v>
+      </c>
+      <c r="G26" s="28">
+        <v>45563.0</v>
+      </c>
+      <c r="H26" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="28">
+        <v>45556.0</v>
+      </c>
+      <c r="G27" s="28">
+        <v>45563.0</v>
+      </c>
+      <c r="H27" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="28">
+        <v>45564.0</v>
+      </c>
+      <c r="G28" s="28">
+        <v>45570.0</v>
+      </c>
+      <c r="H28" s="37">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="28">
+        <v>45571.0</v>
+      </c>
+      <c r="G29" s="28">
+        <v>45575.0</v>
+      </c>
+      <c r="H29" s="37">
         <v>0.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="27" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="34">
+        <v>45577.0</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="28">
+        <v>45578.0</v>
+      </c>
+      <c r="G31" s="28">
+        <v>45591.0</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="28">
+        <v>45578.0</v>
+      </c>
+      <c r="G32" s="28">
+        <v>45591.0</v>
+      </c>
+      <c r="H32" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="28">
+        <v>45578.0</v>
+      </c>
+      <c r="G33" s="28">
+        <v>45594.0</v>
+      </c>
+      <c r="H33" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="28">
+        <v>45578.0</v>
+      </c>
+      <c r="G34" s="28">
+        <v>45594.0</v>
+      </c>
+      <c r="H34" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="28">
+        <v>45578.0</v>
+      </c>
+      <c r="G35" s="28">
+        <v>45590.0</v>
+      </c>
+      <c r="H35" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="28">
+        <v>45578.0</v>
+      </c>
+      <c r="G36" s="28">
+        <v>45594.0</v>
+      </c>
+      <c r="H36" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="28">
+        <v>45595.0</v>
+      </c>
+      <c r="G37" s="28">
+        <v>45602.0</v>
+      </c>
+      <c r="H37" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="28">
+        <v>45603.0</v>
+      </c>
+      <c r="G38" s="28">
+        <v>45605.0</v>
+      </c>
+      <c r="H38" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="30">
-        <v>45536.0</v>
-      </c>
-      <c r="G16" s="30">
-        <v>45540.0</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="F39" s="28">
+        <v>45606.0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>45609.0</v>
+      </c>
+      <c r="H39" s="37">
         <v>0.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="30">
-        <v>45536.0</v>
-      </c>
-      <c r="G17" s="30">
-        <v>45540.0</v>
-      </c>
-      <c r="H17" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="30">
-        <v>45536.0</v>
-      </c>
-      <c r="G18" s="30">
-        <v>45540.0</v>
-      </c>
-      <c r="H18" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="30">
-        <v>45536.0</v>
-      </c>
-      <c r="G19" s="30">
-        <v>45540.0</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="30">
-        <v>45536.0</v>
-      </c>
-      <c r="G20" s="30">
-        <v>45540.0</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="34">
-        <v>45539.0</v>
-      </c>
-      <c r="G21" s="34">
-        <v>45542.0</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="34">
-        <v>45543.0</v>
-      </c>
-      <c r="G22" s="34">
-        <v>45549.0</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="34">
-        <v>45549.0</v>
-      </c>
-      <c r="G23" s="34">
-        <v>45550.0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="34">
-        <v>45551.0</v>
-      </c>
-      <c r="G24" s="34">
-        <v>45554.0</v>
-      </c>
-      <c r="H24" s="29">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="36">
-        <v>45555.0</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="30">
-        <v>45556.0</v>
-      </c>
-      <c r="G26" s="30">
-        <v>45563.0</v>
-      </c>
-      <c r="H26" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="30">
-        <v>45556.0</v>
-      </c>
-      <c r="G27" s="30">
-        <v>45563.0</v>
-      </c>
-      <c r="H27" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="30">
-        <v>45564.0</v>
-      </c>
-      <c r="G28" s="30">
-        <v>45570.0</v>
-      </c>
-      <c r="H28" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="30">
-        <v>45571.0</v>
-      </c>
-      <c r="G29" s="30">
-        <v>45575.0</v>
-      </c>
-      <c r="H29" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="36">
-        <v>45577.0</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="30">
-        <v>45578.0</v>
-      </c>
-      <c r="G31" s="30">
-        <v>45591.0</v>
-      </c>
-      <c r="H31" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="30">
-        <v>45578.0</v>
-      </c>
-      <c r="G32" s="30">
-        <v>45591.0</v>
-      </c>
-      <c r="H32" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="30">
-        <v>45578.0</v>
-      </c>
-      <c r="G33" s="30">
-        <v>45594.0</v>
-      </c>
-      <c r="H33" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="30">
-        <v>45578.0</v>
-      </c>
-      <c r="G34" s="30">
-        <v>45594.0</v>
-      </c>
-      <c r="H34" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="30">
-        <v>45578.0</v>
-      </c>
-      <c r="G35" s="30">
-        <v>45590.0</v>
-      </c>
-      <c r="H35" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="30">
-        <v>45578.0</v>
-      </c>
-      <c r="G36" s="30">
-        <v>45594.0</v>
-      </c>
-      <c r="H36" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="27" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="30">
-        <v>45595.0</v>
-      </c>
-      <c r="G37" s="30">
-        <v>45602.0</v>
-      </c>
-      <c r="H37" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="30">
-        <v>45603.0</v>
-      </c>
-      <c r="G38" s="30">
-        <v>45604.0</v>
-      </c>
-      <c r="H38" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="30">
-        <v>45605.0</v>
-      </c>
-      <c r="G39" s="34">
-        <v>45609.0</v>
-      </c>
-      <c r="H39" s="39">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="44">
+      <c r="C40" s="42">
         <v>45610.0</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="12"/>
+    </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>

--- a/Desarrollo/Rector Simuleitor/Gestión/RS-CP.xlsx
+++ b/Desarrollo/Rector Simuleitor/Gestión/RS-CP.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlo\Desktop\trabajos GCS\CodeCrafter\Desarrollo\Rector Simuleitor\Gestión\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552D68F-185E-4D90-BDA4-F9E7468217BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -30,25 +39,28 @@
   <si>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t>JOSHÚA</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Calibri"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t>ANDRÉ</t>
     </r>
@@ -405,98 +417,124 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -504,7 +542,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -538,7 +576,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -552,6 +596,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -566,6 +611,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -580,27 +626,34 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -610,202 +663,162 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
           <bgColor rgb="FFF6F8F9"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle count="2" pivot="0" name="Hoja1-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Hoja1-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="Hoja1-style 2">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Hoja1-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E4:F10" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="E4:F10" headerRowCount="0">
   <tableColumns count="2">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
   </tableColumns>
-  <tableStyleInfo name="Hoja1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H4:H9" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="H4:H9" headerRowCount="0">
   <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
   </tableColumns>
-  <tableStyleInfo name="Hoja1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Hoja1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -995,851 +1008,859 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H986"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="62" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="61.43"/>
-    <col customWidth="1" min="3" max="3" width="54.57"/>
-    <col customWidth="1" min="4" max="4" width="18.14"/>
-    <col customWidth="1" min="5" max="5" width="49.43"/>
-    <col customWidth="1" min="6" max="6" width="52.14"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="22.43"/>
-    <col customWidth="1" min="9" max="29" width="10.71"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="61.453125" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
+    <col min="6" max="6" width="52.08984375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="9" max="29" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:8" ht="14.5">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="2:8" ht="14.5">
+      <c r="C2" s="1"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.5">
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.5">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E9" si="1">CONCATENATE(D4," ",H4)</f>
+      <c r="E4" s="7" t="str">
+        <f t="shared" ref="E4:E9" si="0">CONCATENATE(D4," ",H4)</f>
         <v>JOSHÚA ANDRÉ BARRANTES</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:8" ht="15.5">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E5" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>RODRIGO JOAQUIN CALDERON</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:8" ht="15.5">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>DIEGO VALENTINO GAMARRA</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:8" ht="15.5">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>JHON FRANCO RIDOUTT</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:8" ht="15.5">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17">
-        <v>45526.0</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="13">
+        <v>45526</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>ANDREW GABRIEL SERNA</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:8" ht="15.5">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="18">
-        <v>45610.0</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="14">
+        <v>45610</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>KARLO ANDRES TORO</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10">
-      <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="22" t="s">
+    <row r="10" spans="2:8" ht="15.5">
+      <c r="D10" s="3"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:8" ht="14.5">
+      <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="2:8" ht="14.5">
+      <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="26">
-        <v>45526.0</v>
-      </c>
-      <c r="G12" s="26">
-        <v>45526.0</v>
-      </c>
-      <c r="H12" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="23" t="s">
+      <c r="F12" s="22">
+        <v>45526</v>
+      </c>
+      <c r="G12" s="22">
+        <v>45526</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.5">
+      <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="28">
-        <v>45533.0</v>
-      </c>
-      <c r="G13" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="H13" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="23" t="s">
+      <c r="F13" s="22">
+        <v>45533</v>
+      </c>
+      <c r="G13" s="22">
+        <v>45536</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.5">
+      <c r="B14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="28">
-        <v>45533.0</v>
-      </c>
-      <c r="G14" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="23" t="s">
+      <c r="F14" s="22">
+        <v>45533</v>
+      </c>
+      <c r="G14" s="22">
+        <v>45536</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="14.5">
+      <c r="B15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="G15" s="28">
-        <v>45540.0</v>
-      </c>
-      <c r="H15" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="23" t="s">
+      <c r="F15" s="22">
+        <v>45536</v>
+      </c>
+      <c r="G15" s="22">
+        <v>45540</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="14.5">
+      <c r="B16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="G16" s="28">
-        <v>45540.0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="23" t="s">
+      <c r="F16" s="22">
+        <v>45536</v>
+      </c>
+      <c r="G16" s="22">
+        <v>45540</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="14.5">
+      <c r="B17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="G17" s="28">
-        <v>45540.0</v>
-      </c>
-      <c r="H17" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="23" t="s">
+      <c r="F17" s="22">
+        <v>45536</v>
+      </c>
+      <c r="G17" s="22">
+        <v>45540</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="14.5">
+      <c r="B18" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="G18" s="28">
-        <v>45540.0</v>
-      </c>
-      <c r="H18" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="23" t="s">
+      <c r="F18" s="22">
+        <v>45536</v>
+      </c>
+      <c r="G18" s="22">
+        <v>45540</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="14.5">
+      <c r="B19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="G19" s="28">
-        <v>45540.0</v>
-      </c>
-      <c r="H19" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="23" t="s">
+      <c r="F19" s="22">
+        <v>45536</v>
+      </c>
+      <c r="G19" s="22">
+        <v>45540</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="14.5">
+      <c r="B20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="28">
-        <v>45536.0</v>
-      </c>
-      <c r="G20" s="28">
-        <v>45540.0</v>
-      </c>
-      <c r="H20" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="29" t="s">
+      <c r="F20" s="22">
+        <v>45536</v>
+      </c>
+      <c r="G20" s="22">
+        <v>45540</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="14.5">
+      <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="32">
-        <v>45539.0</v>
-      </c>
-      <c r="G21" s="32">
-        <v>45542.0</v>
-      </c>
-      <c r="H21" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="23" t="s">
+      <c r="F21" s="27">
+        <v>45539</v>
+      </c>
+      <c r="G21" s="27">
+        <v>45542</v>
+      </c>
+      <c r="H21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="14.5">
+      <c r="B22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="32">
-        <v>45543.0</v>
-      </c>
-      <c r="G22" s="32">
-        <v>45549.0</v>
-      </c>
-      <c r="H22" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="29" t="s">
+      <c r="F22" s="27">
+        <v>45543</v>
+      </c>
+      <c r="G22" s="27">
+        <v>45549</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="14.5">
+      <c r="B23" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="32">
-        <v>45549.0</v>
-      </c>
-      <c r="G23" s="32">
-        <v>45550.0</v>
-      </c>
-      <c r="H23" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="s">
+      <c r="F23" s="27">
+        <v>45549</v>
+      </c>
+      <c r="G23" s="27">
+        <v>45550</v>
+      </c>
+      <c r="H23" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="14.5">
+      <c r="B24" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="32">
-        <v>45551.0</v>
-      </c>
-      <c r="G24" s="32">
-        <v>45554.0</v>
-      </c>
-      <c r="H24" s="27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="33" t="s">
+      <c r="F24" s="27">
+        <v>45551</v>
+      </c>
+      <c r="G24" s="27">
+        <v>45554</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="14.5">
+      <c r="B25" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="34">
-        <v>45555.0</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="23" t="s">
+      <c r="C25" s="36">
+        <v>45555</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="2:8" ht="14.5">
+      <c r="B26" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="28">
-        <v>45556.0</v>
-      </c>
-      <c r="G26" s="28">
-        <v>45563.0</v>
-      </c>
-      <c r="H26" s="37">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="23" t="s">
+      <c r="F26" s="22">
+        <v>45556</v>
+      </c>
+      <c r="G26" s="22">
+        <v>45563</v>
+      </c>
+      <c r="H26" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="14.5">
+      <c r="B27" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="28">
-        <v>45556.0</v>
-      </c>
-      <c r="G27" s="28">
-        <v>45563.0</v>
-      </c>
-      <c r="H27" s="37">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="23" t="s">
+      <c r="F27" s="22">
+        <v>45556</v>
+      </c>
+      <c r="G27" s="22">
+        <v>45563</v>
+      </c>
+      <c r="H27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="14.5">
+      <c r="B28" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="28">
-        <v>45564.0</v>
-      </c>
-      <c r="G28" s="28">
-        <v>45570.0</v>
-      </c>
-      <c r="H28" s="37">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="29" t="s">
+      <c r="F28" s="22">
+        <v>45564</v>
+      </c>
+      <c r="G28" s="22">
+        <v>45570</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="14.5">
+      <c r="B29" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="28">
-        <v>45571.0</v>
-      </c>
-      <c r="G29" s="28">
-        <v>45575.0</v>
-      </c>
-      <c r="H29" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="33" t="s">
+      <c r="F29" s="22">
+        <v>45571</v>
+      </c>
+      <c r="G29" s="22">
+        <v>45575</v>
+      </c>
+      <c r="H29" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B30" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="34">
-        <v>45577.0</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="23" t="s">
+      <c r="C30" s="36">
+        <v>45577</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="28">
-        <v>45578.0</v>
-      </c>
-      <c r="G31" s="28">
-        <v>45591.0</v>
-      </c>
-      <c r="H31" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="23" t="s">
+      <c r="F31" s="22">
+        <v>45578</v>
+      </c>
+      <c r="G31" s="22">
+        <v>45591</v>
+      </c>
+      <c r="H31" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B32" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="28">
-        <v>45578.0</v>
-      </c>
-      <c r="G32" s="28">
-        <v>45591.0</v>
-      </c>
-      <c r="H32" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="23" t="s">
+      <c r="F32" s="22">
+        <v>45578</v>
+      </c>
+      <c r="G32" s="22">
+        <v>45591</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B33" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="28">
-        <v>45578.0</v>
-      </c>
-      <c r="G33" s="28">
-        <v>45594.0</v>
-      </c>
-      <c r="H33" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="23" t="s">
+      <c r="F33" s="22">
+        <v>45578</v>
+      </c>
+      <c r="G33" s="22">
+        <v>45594</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B34" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="28">
-        <v>45578.0</v>
-      </c>
-      <c r="G34" s="28">
-        <v>45594.0</v>
-      </c>
-      <c r="H34" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="23" t="s">
+      <c r="F34" s="22">
+        <v>45578</v>
+      </c>
+      <c r="G34" s="22">
+        <v>45594</v>
+      </c>
+      <c r="H34" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B35" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="28">
-        <v>45578.0</v>
-      </c>
-      <c r="G35" s="28">
-        <v>45590.0</v>
-      </c>
-      <c r="H35" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="23" t="s">
+      <c r="F35" s="22">
+        <v>45578</v>
+      </c>
+      <c r="G35" s="22">
+        <v>45590</v>
+      </c>
+      <c r="H35" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B36" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="28">
-        <v>45578.0</v>
-      </c>
-      <c r="G36" s="28">
-        <v>45594.0</v>
-      </c>
-      <c r="H36" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="23" t="s">
+      <c r="F36" s="22">
+        <v>45578</v>
+      </c>
+      <c r="G36" s="22">
+        <v>45594</v>
+      </c>
+      <c r="H36" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B37" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="28">
-        <v>45595.0</v>
-      </c>
-      <c r="G37" s="28">
-        <v>45602.0</v>
-      </c>
-      <c r="H37" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="23" t="s">
+      <c r="F37" s="22">
+        <v>45595</v>
+      </c>
+      <c r="G37" s="22">
+        <v>45602</v>
+      </c>
+      <c r="H37" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B38" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="28">
-        <v>45603.0</v>
-      </c>
-      <c r="G38" s="28">
-        <v>45605.0</v>
-      </c>
-      <c r="H38" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="39" t="s">
+      <c r="F38" s="22">
+        <v>45603</v>
+      </c>
+      <c r="G38" s="22">
+        <v>45605</v>
+      </c>
+      <c r="H38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B39" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="28">
-        <v>45606.0</v>
-      </c>
-      <c r="G39" s="32">
-        <v>45609.0</v>
-      </c>
-      <c r="H39" s="37">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="41" t="s">
+      <c r="F39" s="22">
+        <v>45606</v>
+      </c>
+      <c r="G39" s="27">
+        <v>45609</v>
+      </c>
+      <c r="H39" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B40" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="42">
-        <v>45610.0</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="C40" s="36">
+        <v>45610</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2786,15 +2807,13 @@
     <mergeCell ref="C40:H40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>